--- a/cmip6/models/noresm1-f/cmip6_ncc_noresm1-f_ocean.xlsx
+++ b/cmip6/models/noresm1-f/cmip6_ncc_noresm1-f_ocean.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="824">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -166,6 +166,9 @@
     <t>cmip6.ocean.key_properties.name</t>
   </si>
   <si>
+    <t>Miami Isopycnic Coordinate Ocean Model</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -373,6 +376,9 @@
     <t>cmip6.ocean.key_properties.seawater_properties.ocean_freezing_point</t>
   </si>
   <si>
+    <t>Other: fixed</t>
+  </si>
+  <si>
     <t>1.2.1.6 *</t>
   </si>
   <si>
@@ -496,6 +502,9 @@
     <t>cmip6.ocean.key_properties.nonoceanic_waters.isolated_seas</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.1.2 </t>
   </si>
   <si>
@@ -506,6 +515,9 @@
   </si>
   <si>
     <t>cmip6.ocean.key_properties.nonoceanic_waters.river_mouth</t>
+  </si>
+  <si>
+    <t>Mix over top 10 m</t>
   </si>
   <si>
     <t>1.5.1</t>
@@ -905,6 +917,9 @@
     <t>cmip6.ocean.grid.discretisation.horizontal.type</t>
   </si>
   <si>
+    <t>Other: pole rotation</t>
+  </si>
+  <si>
     <t>Lat-lon</t>
   </si>
   <si>
@@ -947,12 +962,12 @@
     <t>cmip6.ocean.grid.discretisation.horizontal.scheme</t>
   </si>
   <si>
+    <t>Finite volumes</t>
+  </si>
+  <si>
     <t>Finite difference</t>
   </si>
   <si>
-    <t>Finite volumes</t>
-  </si>
-  <si>
     <t>Finite elements</t>
   </si>
   <si>
@@ -1205,12 +1220,12 @@
     <t>cmip6.ocean.advection.momentum.type</t>
   </si>
   <si>
+    <t>Vector form</t>
+  </si>
+  <si>
     <t>Flux form</t>
   </si>
   <si>
-    <t>Vector form</t>
-  </si>
-  <si>
     <t>4.2.1.2 *</t>
   </si>
   <si>
@@ -1223,6 +1238,9 @@
     <t>cmip6.ocean.advection.momentum.scheme_name</t>
   </si>
   <si>
+    <t>Potential enstrophy conserving scheme (Sadourny, 1975; Bleck and Smith, 1990)</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.2.1.3 </t>
   </si>
   <si>
@@ -1289,6 +1307,9 @@
     <t>cmip6.ocean.advection.lateral_tracers.name</t>
   </si>
   <si>
+    <t>Incremental remapping (Dukowicz and Baumgardner, 2000). Limiting is applied to the reconstruction of advected fields to ensure monotonicity.</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.3.1.5 </t>
   </si>
   <si>
@@ -1418,12 +1439,12 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.direction</t>
   </si>
   <si>
+    <t>Isopycnal</t>
+  </si>
+  <si>
     <t>Horizontal</t>
   </si>
   <si>
-    <t>Isopycnal</t>
-  </si>
-  <si>
     <t>Isoneutral</t>
   </si>
   <si>
@@ -1487,15 +1508,15 @@
     <t>cmip6.ocean.lateral_physics.momentum.eddy_viscosity_coeff.type</t>
   </si>
   <si>
+    <t>Time + space varying (Smagorinsky)</t>
+  </si>
+  <si>
     <t>Constant</t>
   </si>
   <si>
     <t>Space varying</t>
   </si>
   <si>
-    <t>Time + space varying (Smagorinsky)</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.3.2 </t>
   </si>
   <si>
@@ -1532,6 +1553,9 @@
     <t>cmip6.ocean.lateral_physics.momentum.eddy_viscosity_coeff.coeff_background</t>
   </si>
   <si>
+    <t>0.02 m s-1 multiplied by local grid size</t>
+  </si>
+  <si>
     <t>5.1.3.5 *</t>
   </si>
   <si>
@@ -1712,6 +1736,9 @@
     <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.flux_type</t>
   </si>
   <si>
+    <t>Advective flux</t>
+  </si>
+  <si>
     <t>5.2.4.4 *</t>
   </si>
   <si>
@@ -1724,6 +1751,9 @@
     <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.added_diffusivity</t>
   </si>
   <si>
+    <t>Flow dependent</t>
+  </si>
+  <si>
     <t>6.1.1</t>
   </si>
   <si>
@@ -1790,6 +1820,9 @@
     <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.tracers.type</t>
   </si>
   <si>
+    <t>Other: turbulent closure (bulk mixed layer)</t>
+  </si>
+  <si>
     <t>Constant value</t>
   </si>
   <si>
@@ -1934,6 +1967,9 @@
     <t>cmip6.ocean.vertical_physics.interior_mixing.details.tide_induced_mixing</t>
   </si>
   <si>
+    <t>Barotropic tides</t>
+  </si>
+  <si>
     <t>6.1.5.3 *</t>
   </si>
   <si>
@@ -2099,6 +2135,9 @@
     <t>cmip6.ocean.uplow_boundaries.free_surface.scheme</t>
   </si>
   <si>
+    <t>Non-linear semi-explicit</t>
+  </si>
+  <si>
     <t>Linear implicit</t>
   </si>
   <si>
@@ -2114,9 +2153,6 @@
     <t>Non-linear filtered</t>
   </si>
   <si>
-    <t>Non-linear semi-explicit</t>
-  </si>
-  <si>
     <t>Fully explicit</t>
   </si>
   <si>
@@ -2192,6 +2228,9 @@
     <t>cmip6.ocean.uplow_boundaries.bottom_boundary_layer.sill_overflow</t>
   </si>
   <si>
+    <t>No specific treatment</t>
+  </si>
+  <si>
     <t>8.1.1</t>
   </si>
   <si>
@@ -2309,15 +2348,15 @@
     <t>cmip6.ocean.boundary_forcing.momentum.bottom_friction.type</t>
   </si>
   <si>
+    <t>Constant drag coefficient</t>
+  </si>
+  <si>
     <t>Non-linear</t>
   </si>
   <si>
     <t>Non-linear (drag function of speed of tides)</t>
   </si>
   <si>
-    <t>Constant drag coefficient</t>
-  </si>
-  <si>
     <t>8.1.3</t>
   </si>
   <si>
@@ -2336,12 +2375,12 @@
     <t>cmip6.ocean.boundary_forcing.momentum.lateral_friction.type</t>
   </si>
   <si>
+    <t>No-slip</t>
+  </si>
+  <si>
     <t>Free-slip</t>
   </si>
   <si>
-    <t>No-slip</t>
-  </si>
-  <si>
     <t>8.1.4</t>
   </si>
   <si>
@@ -2358,6 +2397,9 @@
   </si>
   <si>
     <t>cmip6.ocean.boundary_forcing.tracers.sunlight_penetration.scheme</t>
+  </si>
+  <si>
+    <t>Other: 2 extinction depths</t>
   </si>
   <si>
     <t>1 extinction depth</t>
@@ -3107,20 +3149,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -3131,10 +3173,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3142,10 +3184,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3153,15 +3195,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3169,10 +3211,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3180,10 +3222,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3191,10 +3233,10 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -3202,26 +3244,28 @@
         <v>44</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3229,15 +3273,15 @@
         <v>44</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="178" customHeight="1">
@@ -3245,10 +3289,10 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3256,15 +3300,15 @@
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
       <c r="B29" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="178" customHeight="1">
@@ -3272,10 +3316,10 @@
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>746</v>
+        <v>759</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -3283,15 +3327,15 @@
         <v>44</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="178" customHeight="1">
@@ -3299,10 +3343,10 @@
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
@@ -3310,15 +3354,15 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="178" customHeight="1">
@@ -3326,179 +3370,187 @@
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>754</v>
+        <v>767</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
-      <c r="B48" s="11"/>
+      <c r="B48" s="11" t="s">
+        <v>773</v>
+      </c>
       <c r="AA48" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>760</v>
+        <v>774</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>761</v>
+        <v>775</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>762</v>
+        <v>773</v>
       </c>
       <c r="AE48" s="6" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="AF48" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="A55" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
-      <c r="B56" s="11"/>
+      <c r="B56" s="11" t="s">
+        <v>782</v>
+      </c>
       <c r="AA56" s="6" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>769</v>
+        <v>783</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="AD56" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
-      <c r="B64" s="11"/>
+      <c r="B64" s="11" t="s">
+        <v>790</v>
+      </c>
       <c r="AA64" s="6" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>778</v>
+        <v>792</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>779</v>
+        <v>793</v>
       </c>
       <c r="AD64" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>781</v>
+        <v>795</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="B68" s="11"/>
+      <c r="B68" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>785</v>
+        <v>799</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -3506,15 +3558,15 @@
         <v>44</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>786</v>
+        <v>800</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>787</v>
+        <v>801</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="B72" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="178" customHeight="1">
@@ -3522,10 +3574,10 @@
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>788</v>
+        <v>802</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>789</v>
+        <v>803</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -3533,15 +3585,15 @@
         <v>44</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>790</v>
+        <v>804</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>791</v>
+        <v>805</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -3549,88 +3601,88 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>792</v>
+        <v>806</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>793</v>
+        <v>807</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="B82" s="13" t="s">
-        <v>794</v>
+        <v>808</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>795</v>
+        <v>809</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>796</v>
+        <v>810</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
       <c r="A85" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>797</v>
+        <v>811</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>798</v>
+        <v>812</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="B86" s="11"/>
       <c r="AA86" s="6" t="s">
-        <v>799</v>
+        <v>813</v>
       </c>
       <c r="AB86" s="6" t="s">
-        <v>800</v>
+        <v>814</v>
       </c>
       <c r="AC86" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>801</v>
+        <v>815</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>802</v>
+        <v>816</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>803</v>
+        <v>817</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>804</v>
+        <v>818</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="B90" s="11"/>
       <c r="AA90" s="6" t="s">
-        <v>799</v>
+        <v>813</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>800</v>
+        <v>814</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="AD90" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>807</v>
+        <v>821</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
@@ -3638,10 +3690,10 @@
         <v>44</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>809</v>
+        <v>823</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
@@ -3771,7 +3823,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD198"/>
+  <dimension ref="A1:XFD201"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3816,14 +3868,16 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3831,15 +3885,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
@@ -3847,10 +3901,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3858,15 +3912,15 @@
         <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
@@ -3874,55 +3928,57 @@
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="AA20" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="24" customHeight="1">
@@ -3931,37 +3987,39 @@
       </c>
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="AA25" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
@@ -3970,967 +4028,1066 @@
       </c>
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
+      <c r="B30" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="AA30" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" ht="24" customHeight="1">
+      <c r="B31" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA31" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AC30" s="6" t="s">
+      <c r="AB31" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AD30" s="6" t="s">
+      <c r="AC31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AE30" s="6" t="s">
+      <c r="AD31" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AF30" s="6" t="s">
+      <c r="AE31" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AG30" s="6" t="s">
+      <c r="AF31" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AH30" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" ht="24" customHeight="1">
-      <c r="A33" s="12" t="s">
+      <c r="AG31" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="AH31" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" ht="24" customHeight="1">
+      <c r="B32" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA32" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE32" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH32" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" ht="24" customHeight="1">
+      <c r="B33" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD33" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE33" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF33" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH33" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" ht="24" customHeight="1">
+      <c r="A36" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="34" spans="1:32" ht="24" customHeight="1">
-      <c r="B34" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="24" customHeight="1">
-      <c r="A36" s="9" t="s">
+    <row r="37" spans="1:34" ht="24" customHeight="1">
+      <c r="B37" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="9" t="s">
+    </row>
+    <row r="39" spans="1:34" ht="24" customHeight="1">
+      <c r="A39" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="37" spans="1:32" ht="24" customHeight="1">
-      <c r="A37" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="10" t="s">
+    </row>
+    <row r="40" spans="1:34" ht="24" customHeight="1">
+      <c r="A40" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" ht="24" customHeight="1">
-      <c r="B38" s="11"/>
-      <c r="AA38" s="6" t="s">
+      <c r="C40" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="AB38" s="6" t="s">
+    </row>
+    <row r="41" spans="1:34" ht="24" customHeight="1">
+      <c r="B41" s="11"/>
+      <c r="AA41" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AC38" s="6" t="s">
+      <c r="AB41" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AD38" s="6" t="s">
+      <c r="AC41" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="AE38" s="6" t="s">
+      <c r="AD41" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AF38" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" ht="24" customHeight="1">
-      <c r="A40" s="9" t="s">
+      <c r="AE41" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="AF41" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" ht="24" customHeight="1">
+      <c r="A43" s="9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" ht="24" customHeight="1">
-      <c r="A41" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="10" t="s">
+    </row>
+    <row r="44" spans="1:34" ht="24" customHeight="1">
+      <c r="A44" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" ht="24" customHeight="1">
-      <c r="B42" s="11"/>
-      <c r="AA42" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB42" s="6" t="s">
+      <c r="C44" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" ht="24" customHeight="1">
+      <c r="B45" s="11"/>
+      <c r="AA45" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="44" spans="1:32" ht="24" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44" s="9" t="s">
+      <c r="AB45" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" ht="24" customHeight="1">
+      <c r="A47" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" ht="24" customHeight="1">
-      <c r="A45" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="10" t="s">
+    </row>
+    <row r="48" spans="1:34" ht="24" customHeight="1">
+      <c r="A48" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" ht="24" customHeight="1">
-      <c r="B46" s="11"/>
-      <c r="AA46" s="6" t="s">
+      <c r="C48" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="AB46" s="6" t="s">
+    </row>
+    <row r="49" spans="1:28" ht="24" customHeight="1">
+      <c r="B49" s="11"/>
+      <c r="AA49" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="48" spans="1:32" ht="24" customHeight="1">
-      <c r="A48" s="9" t="s">
+      <c r="AB49" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="9" t="s">
+    </row>
+    <row r="51" spans="1:28" ht="24" customHeight="1">
+      <c r="A51" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" ht="24" customHeight="1">
-      <c r="A49" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="10" t="s">
+    </row>
+    <row r="52" spans="1:28" ht="24" customHeight="1">
+      <c r="A52" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
-      <c r="AA50" s="6" t="s">
+      <c r="C52" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AB50" s="6" t="s">
+    </row>
+    <row r="53" spans="1:28" ht="24" customHeight="1">
+      <c r="B53" s="11"/>
+      <c r="AA53" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
+      <c r="AB53" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="9" t="s">
+    </row>
+    <row r="55" spans="1:28" ht="24" customHeight="1">
+      <c r="A55" s="9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="10" t="s">
+    </row>
+    <row r="56" spans="1:28" ht="24" customHeight="1">
+      <c r="A56" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="54" spans="1:28" ht="24" customHeight="1">
-      <c r="B54" s="11"/>
-      <c r="AA54" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB54" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
+      <c r="C56" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="9" t="s">
+    </row>
+    <row r="57" spans="1:28" ht="24" customHeight="1">
+      <c r="B57" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="57" spans="1:28" ht="24" customHeight="1">
-      <c r="A57" s="14" t="s">
+      <c r="AA57" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB57" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" ht="24" customHeight="1">
+      <c r="A59" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="10" t="s">
+    </row>
+    <row r="60" spans="1:28" ht="24" customHeight="1">
+      <c r="A60" s="14" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="58" spans="1:28" ht="24" customHeight="1">
-      <c r="B58" s="11"/>
-    </row>
-    <row r="60" spans="1:28" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
+      <c r="B60" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C60" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="24" customHeight="1">
-      <c r="A61" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="11"/>
+    </row>
+    <row r="63" spans="1:28" ht="24" customHeight="1">
+      <c r="A63" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="24" customHeight="1">
-      <c r="B62" s="11"/>
+    <row r="64" spans="1:28" ht="24" customHeight="1">
+      <c r="A64" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
-      <c r="A65" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:32" ht="24" customHeight="1">
-      <c r="B66" s="13" t="s">
+      <c r="B65" s="11"/>
+    </row>
+    <row r="68" spans="1:32" ht="24" customHeight="1">
+      <c r="A68" s="12" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="68" spans="1:32" ht="24" customHeight="1">
-      <c r="A68" s="9" t="s">
+      <c r="B68" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="9" t="s">
+    </row>
+    <row r="69" spans="1:32" ht="24" customHeight="1">
+      <c r="B69" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:32" ht="24" customHeight="1">
-      <c r="A69" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="10" t="s">
+    <row r="71" spans="1:32" ht="24" customHeight="1">
+      <c r="A71" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="B71" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:32" ht="24" customHeight="1">
-      <c r="B70" s="11"/>
-      <c r="AA70" s="6" t="s">
+    <row r="72" spans="1:32" ht="24" customHeight="1">
+      <c r="A72" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="AB70" s="6" t="s">
+      <c r="C72" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="AC70" s="6" t="s">
+    </row>
+    <row r="73" spans="1:32" ht="24" customHeight="1">
+      <c r="B73" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AD70" s="6" t="s">
+      <c r="AA73" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB73" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AE70" s="6" t="s">
+      <c r="AC73" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="AF70" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="1:32" ht="24" customHeight="1">
-      <c r="A72" s="9" t="s">
+      <c r="AD73" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="AE73" s="6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="73" spans="1:32" ht="24" customHeight="1">
-      <c r="A73" s="14" t="s">
+      <c r="AF73" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" ht="24" customHeight="1">
+      <c r="A75" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="10" t="s">
+    </row>
+    <row r="76" spans="1:32" ht="24" customHeight="1">
+      <c r="A76" s="14" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="74" spans="1:32" ht="24" customHeight="1">
-      <c r="B74" s="11"/>
-    </row>
-    <row r="76" spans="1:32" ht="24" customHeight="1">
-      <c r="A76" s="9" t="s">
+      <c r="B76" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="C76" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
-      <c r="A77" s="14" t="s">
+      <c r="B77" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" ht="24" customHeight="1">
+      <c r="A79" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" ht="24" customHeight="1">
+      <c r="A80" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:32" ht="24" customHeight="1">
-      <c r="B78" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:32" ht="178" customHeight="1">
-      <c r="B79" s="11"/>
+      <c r="B80" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="14" t="s">
+      <c r="B81" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="178" customHeight="1">
+      <c r="B82" s="11"/>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="A84" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="24" customHeight="1">
+      <c r="A85" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="11"/>
+      <c r="B85" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="13" t="s">
+      <c r="B86" s="11"/>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1">
+      <c r="A89" s="12" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="9" t="s">
+      <c r="B89" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B89" s="9" t="s">
+    </row>
+    <row r="90" spans="1:3" ht="24" customHeight="1">
+      <c r="B90" s="13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="14" t="s">
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="A92" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="A93" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="178" customHeight="1">
-      <c r="B92" s="11"/>
+      <c r="B93" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="14" t="s">
+      <c r="B94" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="178" customHeight="1">
+      <c r="B95" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="A97" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1">
+      <c r="A98" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="178" customHeight="1">
-      <c r="B97" s="11"/>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B100" s="12" t="s">
+      <c r="B98" s="10" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="13" t="s">
+      <c r="C98" s="10" t="s">
         <v>163</v>
       </c>
     </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1">
+      <c r="B99" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="178" customHeight="1">
+      <c r="B100" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B103" s="9" t="s">
+      <c r="A103" s="12" t="s">
         <v>165</v>
       </c>
+      <c r="B103" s="12" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="14" t="s">
+      <c r="B104" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="24" customHeight="1">
+      <c r="A106" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="24" customHeight="1">
+      <c r="A107" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="11"/>
-    </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>169</v>
+      <c r="B107" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="14" t="s">
+      <c r="B108" s="11"/>
+    </row>
+    <row r="110" spans="1:3" ht="24" customHeight="1">
+      <c r="A110" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="24" customHeight="1">
+      <c r="A111" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="11"/>
-    </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>173</v>
+      <c r="B111" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="14" t="s">
+      <c r="B112" s="11"/>
+    </row>
+    <row r="114" spans="1:3" ht="24" customHeight="1">
+      <c r="A114" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="24" customHeight="1">
+      <c r="A115" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B112" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="B113" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="B114" s="11"/>
+      <c r="B115" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="24" customHeight="1">
+      <c r="B116" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="A117" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="B118" s="13" t="s">
-        <v>178</v>
-      </c>
+      <c r="B117" s="11"/>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B120" s="9" t="s">
+      <c r="A120" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="24" customHeight="1">
+      <c r="B121" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="24" customHeight="1">
+      <c r="A123" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B123" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="14" t="s">
+    <row r="124" spans="1:3" ht="24" customHeight="1">
+      <c r="A124" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B121" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="B122" s="11"/>
-    </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>183</v>
+      <c r="B124" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="14" t="s">
+      <c r="B125" s="11"/>
+    </row>
+    <row r="127" spans="1:3" ht="24" customHeight="1">
+      <c r="A127" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="24" customHeight="1">
+      <c r="A128" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="B126" s="11"/>
-    </row>
-    <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>187</v>
+      <c r="B128" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="14" t="s">
+      <c r="B129" s="11"/>
+    </row>
+    <row r="131" spans="1:3" ht="24" customHeight="1">
+      <c r="A131" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="24" customHeight="1">
+      <c r="A132" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B129" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="B130" s="11"/>
-    </row>
-    <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>191</v>
+      <c r="B132" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C133" s="10" t="s">
+      <c r="B133" s="11"/>
+    </row>
+    <row r="135" spans="1:3" ht="24" customHeight="1">
+      <c r="A135" s="9" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="B134" s="11"/>
+      <c r="B135" s="9" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
-      <c r="A136" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B136" s="9" t="s">
+      <c r="A136" s="14" t="s">
         <v>196</v>
       </c>
+      <c r="B136" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="B138" s="11"/>
+      <c r="B137" s="11"/>
+    </row>
+    <row r="139" spans="1:3" ht="24" customHeight="1">
+      <c r="A139" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="A140" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>200</v>
+      <c r="A140" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
-      <c r="A141" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="B142" s="11"/>
+      <c r="B141" s="11"/>
+    </row>
+    <row r="143" spans="1:3" ht="24" customHeight="1">
+      <c r="A143" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
-      <c r="A144" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>204</v>
+      <c r="A144" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="A145" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="B146" s="11"/>
+      <c r="B145" s="11"/>
+    </row>
+    <row r="147" spans="1:3" ht="24" customHeight="1">
+      <c r="A147" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="24" customHeight="1">
+      <c r="A148" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="A149" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="B150" s="13" t="s">
-        <v>209</v>
-      </c>
+      <c r="B149" s="11"/>
     </row>
     <row r="152" spans="1:3" ht="24" customHeight="1">
-      <c r="A152" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B152" s="9" t="s">
+      <c r="A152" s="12" t="s">
         <v>211</v>
       </c>
+      <c r="B152" s="12" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
-      <c r="A153" s="14" t="s">
+      <c r="B153" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="24" customHeight="1">
+      <c r="A155" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="24" customHeight="1">
+      <c r="A156" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B153" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="B154" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="178" customHeight="1">
-      <c r="B155" s="11"/>
+      <c r="B156" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="A157" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="178" customHeight="1">
+      <c r="B158" s="11"/>
+    </row>
+    <row r="160" spans="1:3" ht="24" customHeight="1">
+      <c r="A160" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="24" customHeight="1">
+      <c r="A161" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="24" customHeight="1">
+      <c r="B162" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="24" customHeight="1">
+      <c r="B163" s="11"/>
+    </row>
+    <row r="165" spans="1:3" ht="24" customHeight="1">
+      <c r="A165" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="24" customHeight="1">
+      <c r="A166" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="24" customHeight="1">
+      <c r="B167" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="24" customHeight="1">
+      <c r="B168" s="11"/>
+    </row>
+    <row r="170" spans="1:3" ht="24" customHeight="1">
+      <c r="A170" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="24" customHeight="1">
+      <c r="A171" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="24" customHeight="1">
+      <c r="B172" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="24" customHeight="1">
+      <c r="B173" s="11"/>
+    </row>
+    <row r="176" spans="1:3" ht="24" customHeight="1">
+      <c r="A176" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="177" spans="1:32" ht="24" customHeight="1">
+      <c r="B177" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="179" spans="1:32" ht="24" customHeight="1">
+      <c r="A179" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B179" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="24" customHeight="1">
-      <c r="A158" s="14" t="s">
+    <row r="180" spans="1:32" ht="24" customHeight="1">
+      <c r="A180" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B158" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="24" customHeight="1">
-      <c r="B159" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="B160" s="11"/>
-    </row>
-    <row r="162" spans="1:3" ht="24" customHeight="1">
-      <c r="A162" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="24" customHeight="1">
-      <c r="A163" s="14" t="s">
+      <c r="B180" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="181" spans="1:32" ht="24" customHeight="1">
+      <c r="B181" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="182" spans="1:32" ht="178" customHeight="1">
+      <c r="B182" s="11"/>
+    </row>
+    <row r="184" spans="1:32" ht="24" customHeight="1">
+      <c r="A184" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="185" spans="1:32" ht="24" customHeight="1">
+      <c r="A185" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="186" spans="1:32" ht="24" customHeight="1">
+      <c r="B186" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="187" spans="1:32" ht="24" customHeight="1">
+      <c r="B187" s="11"/>
+      <c r="AA187" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB187" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC187" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD187" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE187" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF187" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="189" spans="1:32" ht="24" customHeight="1">
+      <c r="A189" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="190" spans="1:32" ht="24" customHeight="1">
+      <c r="A190" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B163" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="24" customHeight="1">
-      <c r="B164" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="24" customHeight="1">
-      <c r="B165" s="11"/>
-    </row>
-    <row r="167" spans="1:3" ht="24" customHeight="1">
-      <c r="A167" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="24" customHeight="1">
-      <c r="A168" s="14" t="s">
+      <c r="B190" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="191" spans="1:32" ht="24" customHeight="1">
+      <c r="B191" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="192" spans="1:32" ht="24" customHeight="1">
+      <c r="B192" s="11"/>
+    </row>
+    <row r="194" spans="1:3" ht="24" customHeight="1">
+      <c r="A194" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="24" customHeight="1">
+      <c r="A195" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B168" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="24" customHeight="1">
-      <c r="B169" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="24" customHeight="1">
-      <c r="B170" s="11"/>
-    </row>
-    <row r="173" spans="1:3" ht="24" customHeight="1">
-      <c r="A173" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B173" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="24" customHeight="1">
-      <c r="B174" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="24" customHeight="1">
-      <c r="A176" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="177" spans="1:32" ht="24" customHeight="1">
-      <c r="A177" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B177" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="178" spans="1:32" ht="24" customHeight="1">
-      <c r="B178" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="179" spans="1:32" ht="178" customHeight="1">
-      <c r="B179" s="11"/>
-    </row>
-    <row r="181" spans="1:32" ht="24" customHeight="1">
-      <c r="A181" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="182" spans="1:32" ht="24" customHeight="1">
-      <c r="A182" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B182" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="183" spans="1:32" ht="24" customHeight="1">
-      <c r="B183" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="184" spans="1:32" ht="24" customHeight="1">
-      <c r="B184" s="11"/>
-      <c r="AA184" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="AB184" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC184" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD184" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE184" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF184" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="186" spans="1:32" ht="24" customHeight="1">
-      <c r="A186" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="187" spans="1:32" ht="24" customHeight="1">
-      <c r="A187" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B187" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="188" spans="1:32" ht="24" customHeight="1">
-      <c r="B188" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="189" spans="1:32" ht="24" customHeight="1">
-      <c r="B189" s="11"/>
-    </row>
-    <row r="191" spans="1:32" ht="24" customHeight="1">
-      <c r="A191" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="192" spans="1:32" ht="24" customHeight="1">
-      <c r="A192" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B192" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="24" customHeight="1">
-      <c r="B193" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="24" customHeight="1">
-      <c r="B194" s="11"/>
+      <c r="B195" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="196" spans="1:3" ht="24" customHeight="1">
-      <c r="A196" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>250</v>
+      <c r="B196" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="24" customHeight="1">
-      <c r="A197" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B197" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="24" customHeight="1">
-      <c r="B198" s="11"/>
+      <c r="B197" s="11"/>
+    </row>
+    <row r="199" spans="1:3" ht="24" customHeight="1">
+      <c r="A199" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="24" customHeight="1">
+      <c r="A200" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="24" customHeight="1">
+      <c r="B201" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="18">
+  <dataValidations count="21">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>AA20:AD20</formula1>
     </dataValidation>
@@ -4940,52 +5097,61 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
       <formula1>AA30:AH30</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>AA38:AF38</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>AA42:AB42</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
-      <formula1>AA46:AB46</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
-      <formula1>AA50:AB50</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
-      <formula1>AA54:AB54</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>AA31:AH31</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+      <formula1>AA32:AH32</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+      <formula1>AA33:AH33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
+      <formula1>AA41:AF41</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
+      <formula1>AA45:AB45</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
+      <formula1>AA49:AB49</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
+      <formula1>AA53:AB53</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57">
+      <formula1>AA57:AB57</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B61">
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65">
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
-      <formula1>AA70:AF70</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
+      <formula1>AA73:AF73</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B134">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B137">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B141">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B145">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B149">
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B184">
-      <formula1>AA184:AF184</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B198">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B187">
+      <formula1>AA187:AF187</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B201">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5009,20 +5175,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5033,10 +5199,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5044,10 +5210,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -5055,15 +5221,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -5071,98 +5237,98 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AI19" s="6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AK19" s="6" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AN19" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:40" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="24" customHeight="1">
@@ -5170,123 +5336,127 @@
     </row>
     <row r="26" spans="1:40" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:40" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:40" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:40" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
+      <c r="B31" s="11" t="s">
+        <v>296</v>
+      </c>
       <c r="AA31" s="6" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>311</v>
+      </c>
       <c r="AA39" s="6" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -5327,20 +5497,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5351,10 +5521,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5362,10 +5532,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -5373,15 +5543,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
@@ -5389,114 +5559,116 @@
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>337</v>
+      </c>
       <c r="AA23" s="6" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
@@ -5504,111 +5676,111 @@
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:34" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:34" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:34" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:34" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="24" customHeight="1">
       <c r="B39" s="11"/>
       <c r="AA39" s="6" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AH39" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:34" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="24" customHeight="1">
@@ -5616,68 +5788,68 @@
     </row>
     <row r="46" spans="1:34" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -5685,23 +5857,23 @@
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
@@ -5709,10 +5881,10 @@
         <v>44</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -5765,20 +5937,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5789,10 +5961,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5800,10 +5972,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -5811,15 +5983,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -5827,51 +5999,53 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>397</v>
+      </c>
       <c r="AA19" s="6" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="24" customHeight="1">
@@ -5879,32 +6053,34 @@
         <v>44</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="25" spans="1:28" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="24" customHeight="1">
@@ -5912,34 +6088,34 @@
     </row>
     <row r="30" spans="1:28" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -5947,43 +6123,45 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -5991,7 +6169,7 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>43</v>
@@ -6002,32 +6180,34 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="B47" s="11"/>
+      <c r="B47" s="11" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
@@ -6038,27 +6218,27 @@
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11"/>
       <c r="AA52" s="6" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="AE52" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
@@ -6066,10 +6246,10 @@
         <v>44</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6077,20 +6257,20 @@
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>43</v>
@@ -6101,10 +6281,10 @@
         <v>44</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
@@ -6112,25 +6292,27 @@
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="B68" s="11"/>
+      <c r="B68" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="7">
@@ -6177,20 +6359,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6201,10 +6383,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -6212,10 +6394,10 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="24" customHeight="1">
@@ -6223,15 +6405,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="178" customHeight="1">
@@ -6239,217 +6421,225 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>470</v>
+      </c>
       <c r="AA23" s="6" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>478</v>
+      </c>
       <c r="AA27" s="6" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
+      <c r="B31" s="11" t="s">
+        <v>484</v>
+      </c>
       <c r="AA31" s="6" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>493</v>
+      </c>
       <c r="AA39" s="6" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
@@ -6457,10 +6647,10 @@
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
@@ -6468,10 +6658,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
@@ -6479,10 +6669,10 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -6490,32 +6680,34 @@
         <v>44</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="B51" s="11"/>
+      <c r="B51" s="11" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -6523,56 +6715,58 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
+      <c r="B63" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
@@ -6580,186 +6774,192 @@
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="13" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
+      <c r="B75" s="11" t="s">
+        <v>470</v>
+      </c>
       <c r="AA75" s="6" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="AD75" s="6" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="AE75" s="6" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="AF75" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
-      <c r="B79" s="11"/>
+      <c r="B79" s="11" t="s">
+        <v>478</v>
+      </c>
       <c r="AA79" s="6" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="A82" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
-      <c r="B83" s="11"/>
+      <c r="B83" s="11" t="s">
+        <v>484</v>
+      </c>
       <c r="AA83" s="6" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="AC83" s="6" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="AD83" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="B87" s="13" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="B91" s="11"/>
       <c r="AA91" s="6" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="AD91" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
@@ -6767,10 +6967,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -6778,10 +6978,10 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -6789,43 +6989,45 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="B103" s="11"/>
+      <c r="B103" s="11">
+        <v>100</v>
+      </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -6833,62 +7035,62 @@
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="13" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:28" ht="24" customHeight="1">
       <c r="A114" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="24" customHeight="1">
       <c r="B115" s="11"/>
       <c r="AA115" s="6" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="AB115" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:28" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="24" customHeight="1">
       <c r="A118" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="24" customHeight="1">
@@ -6896,10 +7098,10 @@
     </row>
     <row r="121" spans="1:28" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="24" customHeight="1">
@@ -6907,21 +7109,23 @@
         <v>44</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="24" customHeight="1">
-      <c r="B123" s="11"/>
+      <c r="B123" s="11" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="125" spans="1:28" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="24" customHeight="1">
@@ -6929,14 +7133,16 @@
         <v>44</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="24" customHeight="1">
-      <c r="B127" s="11"/>
+      <c r="B127" s="11" t="s">
+        <v>574</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="18">
@@ -7015,20 +7221,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7039,10 +7245,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7050,10 +7256,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -7061,15 +7267,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -7077,34 +7283,34 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
@@ -7112,83 +7318,85 @@
     </row>
     <row r="22" spans="1:35" ht="24" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>597</v>
+      </c>
       <c r="AA27" s="6" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="AI27" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1">
@@ -7196,21 +7404,21 @@
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
@@ -7218,10 +7426,10 @@
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
@@ -7229,10 +7437,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
@@ -7240,83 +7448,85 @@
     </row>
     <row r="42" spans="1:35" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="24" customHeight="1">
       <c r="B43" s="13" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="24" customHeight="1">
       <c r="A46" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="24" customHeight="1">
-      <c r="B47" s="11"/>
+      <c r="B47" s="11" t="s">
+        <v>597</v>
+      </c>
       <c r="AA47" s="6" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="AE47" s="6" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="AF47" s="6" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="AG47" s="6" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="AH47" s="6" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="AI47" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -7324,21 +7534,21 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -7346,10 +7556,10 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -7357,10 +7567,10 @@
         <v>44</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -7368,57 +7578,59 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
-      <c r="B67" s="11"/>
+      <c r="B67" s="11" t="s">
+        <v>639</v>
+      </c>
       <c r="AA67" s="6" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="AD67" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7426,32 +7638,34 @@
         <v>44</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
+      <c r="B71" s="11" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
@@ -7459,21 +7673,21 @@
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7481,77 +7695,77 @@
     </row>
     <row r="82" spans="1:33" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
     </row>
     <row r="83" spans="1:33" ht="24" customHeight="1">
       <c r="B83" s="13" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
     </row>
     <row r="85" spans="1:33" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:33" ht="24" customHeight="1">
       <c r="A86" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
     </row>
     <row r="87" spans="1:33" ht="24" customHeight="1">
       <c r="B87" s="11"/>
       <c r="AA87" s="6" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="AC87" s="6" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="AD87" s="6" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="AE87" s="6" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="AF87" s="6" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="AG87" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:33" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
     </row>
     <row r="91" spans="1:33" ht="24" customHeight="1">
@@ -7559,21 +7773,21 @@
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="24" customHeight="1">
@@ -7581,10 +7795,10 @@
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
@@ -7592,10 +7806,10 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
@@ -7603,77 +7817,77 @@
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
       <c r="B107" s="11"/>
       <c r="AA107" s="6" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="AB107" s="6" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="AC107" s="6" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="AD107" s="6" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="AE107" s="6" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="AF107" s="6" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="AG107" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
       <c r="A110" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
@@ -7681,10 +7895,10 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -7692,10 +7906,10 @@
         <v>44</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -7703,10 +7917,10 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -7714,10 +7928,10 @@
         <v>44</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
@@ -7793,20 +8007,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7817,10 +8031,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7828,10 +8042,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -7839,15 +8053,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -7855,80 +8069,82 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>702</v>
+      </c>
       <c r="AA19" s="6" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
@@ -7936,23 +8152,23 @@
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
@@ -7960,15 +8176,15 @@
         <v>44</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
       <c r="B31" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:34" ht="178" customHeight="1">
@@ -7976,52 +8192,52 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11"/>
       <c r="AA36" s="6" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -8029,10 +8245,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -8040,19 +8256,21 @@
         <v>44</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="178" customHeight="1">
-      <c r="B45" s="11"/>
+      <c r="B45" s="11" t="s">
+        <v>733</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">
